--- a/docs/NSCDataCatalogDraft.xlsx
+++ b/docs/NSCDataCatalogDraft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aaaaae977404fa3b/EBAR/Requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1545" documentId="8_{C3103FD0-F7BD-40FF-B940-9E1DFFA69AB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5517F159-3B5E-4679-8D19-7F850EC872F9}"/>
+  <xr:revisionPtr revIDLastSave="1637" documentId="8_{C3103FD0-F7BD-40FF-B940-9E1DFFA69AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC32D480-4420-47EA-B175-99115723A089}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CA2D5EAB-1717-4674-A682-31B1711545A6}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="1017">
   <si>
     <t>This catalog summarizes NatureServe Canada's data and related "products" under the EBAR-KBA project</t>
   </si>
@@ -1124,60 +1124,33 @@
     <t>UniqueIDField</t>
   </si>
   <si>
-    <t>Import field for provider's unique identifier</t>
-  </si>
-  <si>
     <t>URIField</t>
   </si>
   <si>
     <t>ScientificNameField</t>
   </si>
   <si>
-    <t>Import field for species scientific name</t>
-  </si>
-  <si>
     <t>MinDateField</t>
   </si>
   <si>
-    <t>Import field for data begin date, if any</t>
-  </si>
-  <si>
     <t>MaxDateField</t>
   </si>
   <si>
-    <t>Import field for data end date</t>
-  </si>
-  <si>
     <t>RepAccuracyField</t>
   </si>
   <si>
-    <t>Import field for representation accuracy</t>
-  </si>
-  <si>
     <t>EORankField</t>
   </si>
   <si>
-    <t>Import field for element occurrence rank</t>
-  </si>
-  <si>
     <t>AccuracyField</t>
   </si>
   <si>
-    <t>Import field for spatial uncertainty in metres</t>
-  </si>
-  <si>
     <t>OriginField</t>
   </si>
   <si>
-    <t>Import field for origin (indicator of possible non-native)</t>
-  </si>
-  <si>
     <t>SeasonalityField</t>
   </si>
   <si>
-    <t>Import field for seasonality</t>
-  </si>
-  <si>
     <t>CDCJurisdictionID</t>
   </si>
   <si>
@@ -1610,9 +1583,6 @@
     <t>KBASite</t>
   </si>
   <si>
-    <t>Polygon defining the boundaries of a site to be nominated as a Key Biodiversity Area</t>
-  </si>
-  <si>
     <t>KBASiteID</t>
   </si>
   <si>
@@ -2447,9 +2417,6 @@
     <t>Phylum to which the species belongs (e.g., Anthophyta, Mollusca)</t>
   </si>
   <si>
-    <t>Import field for uniform resource identifier (e.g., URL, URN)</t>
-  </si>
-  <si>
     <t>Uniform resource identifier (e.g., URL, URN) for the observation/occurrence</t>
   </si>
   <si>
@@ -2991,6 +2958,144 @@
   </si>
   <si>
     <t>Unique ID of the related SourceFeature record</t>
+  </si>
+  <si>
+    <t>A physical location being assessed or already approved as a Key Biodiversity Area</t>
+  </si>
+  <si>
+    <t>FORMATTED_FULL_CITATION</t>
+  </si>
+  <si>
+    <t>COSEWIC_ASSESS_CRITERIA</t>
+  </si>
+  <si>
+    <t>Formal citation for the reference</t>
+  </si>
+  <si>
+    <t>Criteria used in the COSEWIC assessment</t>
+  </si>
+  <si>
+    <t>KINGDOM</t>
+  </si>
+  <si>
+    <t>Taxonomic kingdom for the species element</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>Taxonomic class for the species element</t>
+  </si>
+  <si>
+    <t>TAX_ORDER</t>
+  </si>
+  <si>
+    <t>Taxonomic order for the species element</t>
+  </si>
+  <si>
+    <t>FAMILY</t>
+  </si>
+  <si>
+    <t>Taxonomic family for the species element</t>
+  </si>
+  <si>
+    <t>SARA_STATUS_DATE</t>
+  </si>
+  <si>
+    <t>Date of addition to or status change on SARA schedule 1</t>
+  </si>
+  <si>
+    <t>NSX_URL</t>
+  </si>
+  <si>
+    <t>Link to element details on NatureServe Explorer</t>
+  </si>
+  <si>
+    <t>Import field mapping for provider's unique identifier</t>
+  </si>
+  <si>
+    <t>Import field mapping for uniform resource identifier (e.g., URL, URN)</t>
+  </si>
+  <si>
+    <t>Import field mapping for species scientific name</t>
+  </si>
+  <si>
+    <t>Import field mapping for data begin date, if any</t>
+  </si>
+  <si>
+    <t>Import field mapping for data end date</t>
+  </si>
+  <si>
+    <t>Import field mapping for representation accuracy</t>
+  </si>
+  <si>
+    <t>Import field mapping for element occurrence rank</t>
+  </si>
+  <si>
+    <t>Import field mapping for spatial uncertainty in metres</t>
+  </si>
+  <si>
+    <t>Import field mapping for origin (indicator of possible non-native)</t>
+  </si>
+  <si>
+    <t>Import field mapping for seasonality</t>
+  </si>
+  <si>
+    <t>XXXField</t>
+  </si>
+  <si>
+    <t>Import field mapping for XXX</t>
+  </si>
+  <si>
+    <t>DatasetSourceComments</t>
+  </si>
+  <si>
+    <t>Misc comments from the EBAR team</t>
+  </si>
+  <si>
+    <t>DuplicatePriority</t>
+  </si>
+  <si>
+    <t>Tiebreaker when removing duplicates across DatasetSources</t>
+  </si>
+  <si>
+    <t>ExcludeFromExport</t>
+  </si>
+  <si>
+    <t>Temorary switch not used in production EBAR workflow</t>
+  </si>
+  <si>
+    <t>InputDatasetComments</t>
+  </si>
+  <si>
+    <t>EBAR Reviewer 2</t>
+  </si>
+  <si>
+    <t>Web AppBuilder application with custom widget</t>
+  </si>
+  <si>
+    <t>https://gis.natureserve.ca/portal/apps/webappviewer/index.html?id=c5272333ddca42e88897c43daa46d960</t>
+  </si>
+  <si>
+    <t>Province, territory or state</t>
+  </si>
+  <si>
+    <t>Geoprivacy</t>
+  </si>
+  <si>
+    <t>Taxon geoprivacy</t>
+  </si>
+  <si>
+    <t>BreedingAndBehaviourCode</t>
+  </si>
+  <si>
+    <t>Domain of eBird breeding and behaviour codes (https://support.ebird.org/en/support/solutions/articles/48000837520-ebird-breeding-and-behavior-codes)</t>
+  </si>
+  <si>
+    <t>iNaturalist geoprivacy setting (https://www.inaturalist.org/pages/help#geoprivacy)</t>
+  </si>
+  <si>
+    <t>iNaturalist taxon geoprivacy setting (https://www.inaturalist.org/pages/help#geoprivacy)</t>
   </si>
 </sst>
 </file>
@@ -5400,7 +5505,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97E2867-3FBB-4B38-95A8-2F1080C01224}">
-  <dimension ref="A1:D507"/>
+  <dimension ref="A1:D525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5520,7 +5625,7 @@
         <v>222</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5531,7 +5636,7 @@
         <v>222</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5553,7 +5658,7 @@
         <v>207</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5564,7 +5669,7 @@
         <v>207</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -5575,7 +5680,7 @@
         <v>207</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -5586,7 +5691,7 @@
         <v>207</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -5597,7 +5702,7 @@
         <v>207</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -5806,7 +5911,7 @@
         <v>207</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -5894,7 +5999,7 @@
         <v>207</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
@@ -5905,7 +6010,7 @@
         <v>207</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
@@ -6251,4213 +6356,4216 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="C79" t="s">
         <v>210</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="C80" t="s">
         <v>210</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="C81" t="s">
         <v>207</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="C82" t="s">
         <v>207</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="C83" t="s">
         <v>207</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="C84" t="s">
         <v>207</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="C85" t="s">
         <v>207</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="C86" t="s">
         <v>207</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="C87" t="s">
         <v>207</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="C88" t="s">
         <v>207</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="C89" t="s">
         <v>207</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="C90" t="s">
         <v>207</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="C91" t="s">
         <v>207</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="C92" t="s">
         <v>207</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="C93" t="s">
         <v>207</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="C94" t="s">
         <v>207</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="C95" t="s">
         <v>207</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="C96" t="s">
         <v>207</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="C97" t="s">
         <v>207</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="C98" t="s">
         <v>207</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="C99" t="s">
         <v>207</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="C100" t="s">
         <v>207</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="C101" t="s">
         <v>207</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="C102" t="s">
         <v>207</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="C103" t="s">
         <v>207</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="C104" t="s">
         <v>207</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="C105" t="s">
         <v>207</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="C106" t="s">
         <v>207</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="C107" t="s">
         <v>207</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="C108" t="s">
         <v>207</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="C109" t="s">
         <v>207</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="C110" t="s">
         <v>207</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="C111" t="s">
         <v>207</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="C112" t="s">
         <v>207</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="C113" t="s">
         <v>207</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="C114" t="s">
         <v>207</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="C115" t="s">
         <v>207</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="C116" t="s">
         <v>207</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="C117" t="s">
         <v>207</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="C118" t="s">
         <v>207</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="C119" t="s">
         <v>207</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="C120" t="s">
         <v>207</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="C121" t="s">
         <v>207</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="C122" t="s">
         <v>207</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="C123" t="s">
         <v>207</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="C124" t="s">
         <v>207</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="C125" t="s">
         <v>207</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="C126" t="s">
         <v>207</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="C127" t="s">
         <v>207</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="C128" t="s">
         <v>207</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="C129" t="s">
         <v>207</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="C130" t="s">
         <v>207</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="C131" t="s">
         <v>207</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="C132" t="s">
         <v>207</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="C133" t="s">
         <v>207</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="C134" t="s">
         <v>207</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="C135" t="s">
         <v>207</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="C136" t="s">
         <v>207</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="C137" t="s">
         <v>207</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B138"/>
-      <c r="C138"/>
-    </row>
-    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>972</v>
+      </c>
+      <c r="C138" t="s">
+        <v>207</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>973</v>
+      </c>
+      <c r="C139" t="s">
+        <v>207</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>976</v>
+      </c>
+      <c r="C140" t="s">
+        <v>207</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>978</v>
+      </c>
+      <c r="C141" t="s">
+        <v>207</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>980</v>
+      </c>
+      <c r="C142" t="s">
+        <v>207</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>982</v>
+      </c>
+      <c r="C143" t="s">
+        <v>207</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>984</v>
+      </c>
+      <c r="C144" t="s">
+        <v>210</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>986</v>
+      </c>
+      <c r="C145" t="s">
+        <v>207</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B146"/>
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B145" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
-        <v>363</v>
+        <v>9</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
-        <v>367</v>
+        <v>11</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" s="2" t="s">
-        <v>369</v>
+        <v>12</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
-        <v>371</v>
+        <v>13</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>374</v>
+        <v>988</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>376</v>
+        <v>989</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" s="2" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>380</v>
+        <v>991</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>381</v>
+      <c r="B159" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>382</v>
+        <v>993</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B160" s="2" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>352</v>
+        <v>994</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B161" s="2" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>385</v>
+        <v>995</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" s="2" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B166" s="2" t="s">
-        <v>394</v>
+        <v>998</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" s="2" t="s">
-        <v>396</v>
+        <v>1000</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>397</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
-        <v>398</v>
+        <v>1002</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B169" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B170" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>401</v>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>401</v>
+        <v>222</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>406</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B172" s="2" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>408</v>
+        <v>283</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>409</v>
+      <c r="B174" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="2" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="2" t="s">
         <v>383</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>207</v>
+        <v>392</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>207</v>
+        <v>392</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>207</v>
+        <v>392</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B184" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>428</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>430</v>
+      <c r="B186" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B187" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B188" s="2" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B189" s="2" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>435</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B191" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B193" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B195" s="2" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>207</v>
+      <c r="A197" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="D198" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>448</v>
+      <c r="C200" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B201" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>352</v>
+        <v>425</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B202" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>222</v>
+      <c r="A202" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" s="2" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>453</v>
+        <v>352</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B204" s="2" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B205" s="2" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>458</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B208" s="2" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>352</v>
+        <v>437</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B212" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B210" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B211" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B212" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="D212" s="2" t="s">
-        <v>468</v>
+        <v>352</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B213" s="2" t="s">
-        <v>469</v>
+        <v>351</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B214" s="2" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B215" s="2" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="C215" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B216" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B217" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D215" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="D217" s="2" t="s">
-        <v>475</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B218" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C218" s="5" t="s">
+      <c r="B218" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B221" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D221" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B219" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C219" s="5" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B222" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B220" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C220" s="5" t="s">
+      <c r="D222" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B223" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B221" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B222" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B223" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="D223" s="2" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B224" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>207</v>
+      <c r="B224" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B225" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>207</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B225" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="226" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B226" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C226" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B226" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B227" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B228" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B227" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B228" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="D228" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="229" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B229" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="230" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B230" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>207</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="231" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B231" s="5" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>222</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B232" s="5" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B233" s="5" t="s">
-        <v>899</v>
+        <v>221</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B234" s="5" t="s">
-        <v>900</v>
+        <v>470</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B235" s="5" t="s">
-        <v>901</v>
+        <v>472</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B236" s="5" t="s">
-        <v>902</v>
+        <v>474</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B237" s="5" t="s">
-        <v>903</v>
+        <v>476</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B238" s="5" t="s">
-        <v>904</v>
+        <v>477</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B239" s="5" t="s">
-        <v>905</v>
+        <v>479</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B240" s="5" t="s">
-        <v>906</v>
+        <v>481</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>939</v>
+        <v>482</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="5" t="s">
-        <v>907</v>
+        <v>483</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B242" s="5" t="s">
-        <v>908</v>
+        <v>485</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B243" s="5" t="s">
-        <v>909</v>
+        <v>487</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="5" t="s">
-        <v>910</v>
+        <v>489</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>943</v>
+        <v>490</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="5" t="s">
-        <v>911</v>
+        <v>398</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>944</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="5" t="s">
-        <v>912</v>
+        <v>888</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>945</v>
+        <v>921</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="5" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>946</v>
+        <v>922</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="5" t="s">
-        <v>914</v>
+        <v>890</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>947</v>
+        <v>923</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="5" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>948</v>
+        <v>924</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="5" t="s">
-        <v>916</v>
+        <v>892</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>949</v>
+        <v>925</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" s="5" t="s">
-        <v>917</v>
+        <v>893</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="5" t="s">
-        <v>918</v>
+        <v>894</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>951</v>
+        <v>926</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="5" t="s">
-        <v>919</v>
+        <v>895</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>952</v>
+        <v>928</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="5" t="s">
-        <v>920</v>
+        <v>896</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>954</v>
+        <v>929</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" s="5" t="s">
-        <v>921</v>
+        <v>897</v>
       </c>
       <c r="C255" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B266" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="C267" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B256" s="5" t="s">
-        <v>922</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B257" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B258" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B259" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B260" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B261" s="5" t="s">
-        <v>927</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B262" s="5" t="s">
-        <v>928</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B263" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B264" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B265" s="5" t="s">
-        <v>931</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B266" s="5"/>
-      <c r="C266" s="5"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="D267" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" s="5" t="s">
-        <v>384</v>
+        <v>910</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B269" s="5" t="s">
-        <v>501</v>
+        <v>911</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B270" s="5" t="s">
-        <v>502</v>
+        <v>912</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B271" s="5"/>
-      <c r="C271" s="5"/>
-    </row>
-    <row r="272" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B272" s="5"/>
-      <c r="C272" s="5"/>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="D272" s="2" t="s">
-        <v>505</v>
+        <v>947</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B273" s="5" t="s">
-        <v>506</v>
+        <v>915</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>352</v>
+        <v>948</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B274" s="5" t="s">
-        <v>507</v>
+        <v>916</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>508</v>
+        <v>950</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B275" s="5" t="s">
-        <v>509</v>
+        <v>917</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>510</v>
+        <v>951</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B276" s="5" t="s">
-        <v>511</v>
+        <v>918</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>512</v>
+        <v>949</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B277" s="5" t="s">
-        <v>513</v>
+        <v>919</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>514</v>
+        <v>952</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B278" s="5" t="s">
-        <v>407</v>
+        <v>920</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>408</v>
+        <v>207</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B279" s="5"/>
-      <c r="C279" s="5"/>
+      <c r="B279" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="280" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B280" s="5"/>
-      <c r="C280" s="5"/>
+      <c r="B280" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="D280" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B281" s="5" t="s">
-        <v>517</v>
+        <v>1012</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B282" s="5" t="s">
-        <v>507</v>
+        <v>1013</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>508</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B283" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>510</v>
-      </c>
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B284" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>464</v>
-      </c>
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B285" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>222</v>
+      <c r="A285" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>519</v>
+        <v>791</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B286" s="5" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>408</v>
+        <v>283</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B287" s="5"/>
-      <c r="C287" s="5"/>
-    </row>
-    <row r="288" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B288" s="5"/>
-      <c r="C288" s="5"/>
+      <c r="B287" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B288" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="D288" s="2" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B289" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B290" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>207</v>
-      </c>
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+    </row>
+    <row r="290" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
       <c r="D290" s="2" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B291" s="5" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>526</v>
+        <v>352</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B292" s="5" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B293" s="5" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B294" s="5" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B295" s="5" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B296" s="5" t="s">
-        <v>535</v>
+        <v>398</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B297" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>538</v>
-      </c>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B297" s="5"/>
+      <c r="C297" s="5"/>
     </row>
     <row r="298" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B298" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>207</v>
-      </c>
+      <c r="A298" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B298" s="5"/>
+      <c r="C298" s="5"/>
       <c r="D298" s="2" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B299" s="5" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B300" s="5" t="s">
-        <v>543</v>
+        <v>498</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>544</v>
+        <v>499</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B301" s="5" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>546</v>
+        <v>501</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B302" s="5" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>408</v>
+        <v>222</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B303" s="5"/>
-      <c r="C303" s="5"/>
+      <c r="B303" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B304" s="5"/>
-      <c r="C304" s="5"/>
-      <c r="D304" s="2" t="s">
-        <v>548</v>
+      <c r="B304" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B305" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="C305" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>524</v>
-      </c>
+      <c r="B305" s="5"/>
+      <c r="C305" s="5"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B306" s="5" t="s">
-        <v>549</v>
-      </c>
+      <c r="A306" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B306" s="5"/>
       <c r="C306" s="5"/>
-      <c r="D306" s="2" t="s">
-        <v>550</v>
+      <c r="D306" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B307" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="C307" s="5"/>
+        <v>512</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="D307" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B308" s="5" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B309" s="5"/>
-      <c r="C309" s="5"/>
+      <c r="B309" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B310" s="5"/>
-      <c r="C310" s="5"/>
+      <c r="B310" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="D310" s="2" t="s">
-        <v>555</v>
+        <v>518</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B311" s="5" t="s">
-        <v>556</v>
+        <v>519</v>
       </c>
       <c r="C311" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B312" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B313" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B314" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B315" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B316" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B317" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B318" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B319" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B320" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B323" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B324" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C324" s="5"/>
+      <c r="D324" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B325" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C325" s="5"/>
+      <c r="D325" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B326" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B327" s="5"/>
+      <c r="C327" s="5"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B328" s="5"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B329" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C329" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D311" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B312" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="C312" s="2" t="s">
+      <c r="D329" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B330" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D312" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B313" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D313" s="2" t="s">
+      <c r="D330" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B331" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D331" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B314" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D314" s="2" t="s">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B332" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D332" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B315" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D315" s="2" t="s">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B333" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D333" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B316" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B317" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B318" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B319" s="5"/>
-      <c r="C319" s="5"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B320" s="5"/>
-      <c r="C320" s="5"/>
-      <c r="D320" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B321" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C321" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B322" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="C322" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B323" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="C323" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B324" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B325" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="326" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B326" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="C326" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B327" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="C327" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B328" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C328" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="329" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B329" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C329" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="330" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B330" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="C330" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B331" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="C331" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="332" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B332" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="C332" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B333" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B334" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="C334" s="5"/>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B334" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="D334" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B335" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="C335" s="5"/>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B335" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="D335" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B336" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="C336" s="5"/>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B336" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="D336" s="2" t="s">
-        <v>568</v>
+        <v>782</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B337" s="5" t="s">
-        <v>569</v>
-      </c>
+      <c r="B337" s="5"/>
       <c r="C337" s="5"/>
-      <c r="D337" s="2" t="s">
-        <v>570</v>
-      </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>555</v>
+      </c>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
-    </row>
-    <row r="339" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B339" s="5"/>
-      <c r="C339" s="5"/>
+      <c r="D338" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B339" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="D339" s="2" t="s">
-        <v>572</v>
+        <v>352</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B340" s="5" t="s">
-        <v>556</v>
+        <v>513</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>557</v>
+        <v>514</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B341" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>222</v>
+        <v>515</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>557</v>
+        <v>516</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B342" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C342" s="2" t="s">
+      <c r="B342" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C342" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>234</v>
+        <v>518</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B343" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C343" s="2" t="s">
+      <c r="B343" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C343" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B344" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C344" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B344" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C344" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>238</v>
+        <v>522</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B345" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C345" s="2" t="s">
+      <c r="B345" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C345" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>795</v>
+        <v>524</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B346" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C346" s="2" t="s">
+      <c r="B346" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C346" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B347" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C347" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B347" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C347" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B348" s="5"/>
-      <c r="C348" s="5"/>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B348" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B349" s="5"/>
-      <c r="C349" s="5"/>
+      <c r="B349" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="D349" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B350" s="5" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>352</v>
+        <v>534</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B351" s="5" t="s">
-        <v>221</v>
+        <v>535</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B352" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="C352" s="5" t="s">
-        <v>207</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="C352" s="5"/>
       <c r="D352" s="2" t="s">
-        <v>804</v>
+        <v>540</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B353" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>207</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="C353" s="5"/>
       <c r="D353" s="2" t="s">
-        <v>805</v>
+        <v>542</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B354" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="C354" s="5"/>
       <c r="D354" s="2" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B355" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>207</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="C355" s="5"/>
       <c r="D355" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B356" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D356" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B357" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>283</v>
-      </c>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B356" s="5"/>
+      <c r="C356" s="5"/>
+    </row>
+    <row r="357" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B357" s="5"/>
+      <c r="C357" s="5"/>
       <c r="D357" s="2" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B358" s="5" t="s">
-        <v>585</v>
+        <v>546</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B359" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>207</v>
+        <v>548</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B360" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="C360" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B360" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>589</v>
+        <v>234</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B361" s="5"/>
-      <c r="C361" s="5"/>
-    </row>
-    <row r="362" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B362" s="5"/>
-      <c r="C362" s="5"/>
+      <c r="B361" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B362" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="D362" s="2" t="s">
-        <v>591</v>
+        <v>238</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B363" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="C363" s="5" t="s">
+      <c r="B363" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B364" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B365" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B366" s="5"/>
+      <c r="C366" s="5"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B367" s="5"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B368" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C368" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D363" s="2" t="s">
+      <c r="D368" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B364" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C364" s="5" t="s">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B369" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C369" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D364" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B365" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B366" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="C366" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B367" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="C367" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B368" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C368" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B369" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="C369" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="D369" s="2" t="s">
-        <v>599</v>
+        <v>469</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B370" s="5" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>424</v>
+        <v>793</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B371" s="5"/>
-      <c r="C371" s="5"/>
-    </row>
-    <row r="372" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B372" s="5"/>
-      <c r="C372" s="5"/>
+      <c r="B371" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B372" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="D372" s="2" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B373" s="5" t="s">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B374" s="5" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B375" s="5" t="s">
-        <v>450</v>
+        <v>573</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>477</v>
+        <v>574</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B376" s="5" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B377" s="5"/>
-      <c r="C377" s="5"/>
+      <c r="B377" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="378" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
-        <v>607</v>
+      <c r="B378" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B379" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="C379" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B380" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>207</v>
-      </c>
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
+    </row>
+    <row r="380" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B380" s="5"/>
+      <c r="C380" s="5"/>
       <c r="D380" s="2" t="s">
-        <v>234</v>
+        <v>581</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B381" s="5" t="s">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>611</v>
+        <v>352</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B382" s="5" t="s">
-        <v>9</v>
+        <v>374</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B383" s="5" t="s">
-        <v>13</v>
+        <v>509</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>613</v>
+        <v>510</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B384" s="5" t="s">
-        <v>490</v>
+        <v>583</v>
       </c>
       <c r="C384" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B385" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B386" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B387" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B388" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B389" s="5"/>
+      <c r="C389" s="5"/>
+    </row>
+    <row r="390" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B390" s="5"/>
+      <c r="C390" s="5"/>
+      <c r="D390" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B391" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C391" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D384" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B385" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D385" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B386" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C386" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B387" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="C387" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B388" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B389" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C389" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D389" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B390" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="C390" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B391" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
-        <v>617</v>
+      <c r="D391" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B392" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B393" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>618</v>
+        <v>468</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B394" s="5" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="C394" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B395" s="5"/>
+      <c r="C395" s="5"/>
+    </row>
+    <row r="396" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B397" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C397" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D394" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B395" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C395" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B396" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C396" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D396" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B397" s="5"/>
-      <c r="C397" s="5"/>
+      <c r="D397" s="2" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
-        <v>620</v>
+      <c r="B398" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>621</v>
+        <v>234</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B399" s="5" t="s">
-        <v>413</v>
+        <v>600</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>352</v>
+        <v>601</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B400" s="5" t="s">
-        <v>518</v>
+        <v>9</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B401" s="5" t="s">
-        <v>415</v>
+        <v>13</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>416</v>
+        <v>603</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B402" s="5" t="s">
-        <v>622</v>
+        <v>481</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>623</v>
+        <v>482</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B403" s="5" t="s">
-        <v>624</v>
+        <v>472</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>210</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B404" s="5" t="s">
-        <v>626</v>
+        <v>479</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>283</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B405" s="5" t="s">
-        <v>628</v>
+        <v>476</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B406" s="5" t="s">
-        <v>630</v>
+        <v>487</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>631</v>
+        <v>488</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B407" s="5" t="s">
-        <v>632</v>
+        <v>474</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>633</v>
+        <v>475</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B408" s="5" t="s">
-        <v>634</v>
+        <v>605</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B409" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="C409" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B410" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="C410" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B411" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="C411" s="5" t="s">
-        <v>207</v>
+      <c r="B409" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B412" s="5" t="s">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>633</v>
+        <v>352</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B413" s="5"/>
-      <c r="C413" s="5"/>
-    </row>
-    <row r="414" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
-        <v>639</v>
+      <c r="B413" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B414" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>640</v>
+        <v>469</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B415" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="C415" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>352</v>
-      </c>
+      <c r="B415" s="5"/>
+      <c r="C415" s="5"/>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B416" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="C416" s="5" t="s">
-        <v>222</v>
+      <c r="A416" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>519</v>
+        <v>611</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B417" s="5" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>222</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>462</v>
+        <v>352</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B418" s="5" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>222</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>464</v>
+        <v>510</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B419" s="5" t="s">
-        <v>465</v>
+        <v>406</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>466</v>
+        <v>407</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B420" s="5"/>
-      <c r="C420" s="5"/>
-    </row>
-    <row r="421" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
-        <v>642</v>
+      <c r="B420" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B421" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B422" s="5" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>352</v>
+        <v>617</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B423" s="5" t="s">
-        <v>518</v>
+        <v>618</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>519</v>
+        <v>619</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B424" s="5" t="s">
-        <v>221</v>
+        <v>620</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>478</v>
+        <v>621</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B425" s="5"/>
-      <c r="C425" s="5"/>
+      <c r="B425" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
-        <v>645</v>
+      <c r="B426" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B427" s="5" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>352</v>
+        <v>623</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B428" s="5" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B429" s="5"/>
-      <c r="C429" s="5"/>
+      <c r="B429" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
-        <v>650</v>
+      <c r="B430" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B431" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="C431" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B432" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="C432" s="5" t="s">
-        <v>222</v>
+      <c r="B431" s="5"/>
+      <c r="C431" s="5"/>
+    </row>
+    <row r="432" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B433" s="5" t="s">
-        <v>437</v>
+        <v>631</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>222</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>416</v>
+        <v>352</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B434" s="5" t="s">
-        <v>654</v>
+        <v>509</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>655</v>
+        <v>510</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B435" s="5"/>
-      <c r="C435" s="5"/>
+      <c r="B435" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
-        <v>656</v>
+      <c r="B436" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>657</v>
+        <v>455</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B437" s="5" t="s">
-        <v>221</v>
+        <v>456</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>222</v>
       </c>
       <c r="D437" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B438" s="5"/>
+      <c r="C438" s="5"/>
+    </row>
+    <row r="439" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B440" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B441" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B442" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B443" s="5"/>
+      <c r="C443" s="5"/>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B445" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B446" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B447" s="5"/>
+      <c r="C447" s="5"/>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B449" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B450" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B451" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B452" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B453" s="5"/>
+      <c r="C453" s="5"/>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B455" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B456" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="B457" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B458" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B459" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B460" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D460" s="2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B438" s="5" t="s">
+    <row r="461" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B461" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="C438" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D438" s="2" t="s">
+      <c r="C461" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D461" s="2" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="B439" s="5" t="s">
+    <row r="462" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B462" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="C439" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D439" s="2" t="s">
+      <c r="C462" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D462" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B440" s="5" t="s">
+    <row r="463" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B463" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="C440" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D440" s="2" t="s">
+      <c r="C463" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D463" s="2" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B441" s="5" t="s">
+    <row r="464" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B464" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="C441" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D441" s="2" t="s">
+      <c r="C464" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D464" s="2" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B442" s="5" t="s">
+    <row r="465" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B465" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="C442" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D442" s="2" t="s">
+      <c r="C465" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D465" s="2" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B443" s="5" t="s">
+    <row r="466" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B466" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="C443" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D443" s="2" t="s">
+      <c r="C466" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D466" s="2" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B444" s="5" t="s">
+    <row r="467" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B467" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="C444" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D444" s="2" t="s">
+      <c r="C467" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D467" s="2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B445" s="5" t="s">
+    <row r="468" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B468" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="C445" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D445" s="2" t="s">
+      <c r="C468" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D468" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B446" s="5" t="s">
+    <row r="469" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B469" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="C446" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D446" s="2" t="s">
+      <c r="C469" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D469" s="2" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B447" s="5" t="s">
+    <row r="470" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B470" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="C447" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D447" s="2" t="s">
+      <c r="C470" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D470" s="2" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B448" s="5" t="s">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B471" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="C448" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D448" s="2" t="s">
+      <c r="C471" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D471" s="2" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="449" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B449" s="5" t="s">
+    <row r="472" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B472" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="C449" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D449" s="2" t="s">
+      <c r="C472" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D472" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="450" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B450" s="5" t="s">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B473" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="C450" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D450" s="2" t="s">
+      <c r="C473" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D473" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="451" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B451" s="5" t="s">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B474" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="C451" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D451" s="2" t="s">
+      <c r="C474" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D474" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="452" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B452" s="5" t="s">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B475" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="C452" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D452" s="2" t="s">
+      <c r="C475" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D475" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B453" s="5" t="s">
+    <row r="476" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B476" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="C453" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D453" s="2" t="s">
+      <c r="C476" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D476" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="454" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B454" s="5" t="s">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B477" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="C454" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D454" s="2" t="s">
+      <c r="C477" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D477" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B455" s="5" t="s">
+    <row r="478" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B478" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="C455" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D455" s="2" t="s">
+      <c r="C478" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D478" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B456" s="5" t="s">
+    <row r="479" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B479" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="C456" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D456" s="2" t="s">
+      <c r="C479" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D479" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B457" s="5" t="s">
+    <row r="480" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B480" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="C457" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D457" s="2" t="s">
+      <c r="C480" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D480" s="2" t="s">
         <v>698</v>
-      </c>
-    </row>
-    <row r="458" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B458" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="C458" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B459" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="C459" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="460" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B460" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="C460" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D460" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="461" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B461" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="C461" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="462" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B462" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="C462" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D462" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B463" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="C463" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D463" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="464" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B464" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="C464" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B465" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="C465" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B466" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="C466" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D466" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B467" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="C467" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D467" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B468" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="C468" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B469" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C469" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B470" s="5"/>
-      <c r="C470" s="5"/>
-    </row>
-    <row r="471" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A471" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B472" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="C472" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B473" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C473" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B474" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C474" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D474" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B475" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="C475" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D475" s="7" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B476" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="C476" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D476" s="7" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B477" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C477" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D477" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B478" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C478" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B479" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="C479" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D479" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B480" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="C480" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D480" s="2" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B481" s="5" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B482" s="5" t="s">
-        <v>738</v>
+        <v>701</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B483" s="5" t="s">
-        <v>740</v>
+        <v>703</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>741</v>
+        <v>207</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B484" s="5" t="s">
-        <v>742</v>
+        <v>705</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>207</v>
+        <v>392</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B485" s="5" t="s">
-        <v>743</v>
+        <v>707</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>741</v>
+        <v>207</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B486" s="5" t="s">
-        <v>744</v>
+        <v>709</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B487" s="5" t="s">
-        <v>745</v>
+        <v>711</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>741</v>
+        <v>207</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B488" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="C488" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D488" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B489" s="5"/>
-      <c r="C489" s="5"/>
+      <c r="B488" s="5"/>
+      <c r="C488" s="5"/>
+    </row>
+    <row r="489" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
-        <v>747</v>
+      <c r="B490" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>748</v>
+        <v>352</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B491" s="5" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>222</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>352</v>
+        <v>715</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -10468,158 +10576,346 @@
         <v>222</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B493" s="5" t="s">
-        <v>610</v>
+        <v>716</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D493" s="2" t="s">
-        <v>749</v>
+      <c r="D493" s="7" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B494" s="5" t="s">
-        <v>280</v>
+        <v>718</v>
       </c>
       <c r="C494" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D494" s="2" t="s">
-        <v>750</v>
+      <c r="D494" s="7" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B495" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B496" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B497" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B498" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B499" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B500" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B501" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B502" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B503" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="D503" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B504" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B505" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B506" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B507" s="5"/>
+      <c r="C507" s="5"/>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B509" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B510" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B511" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B512" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B513" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C495" s="5" t="s">
+      <c r="C513" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D495" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497" s="1" t="s">
+      <c r="D513" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B516" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B517" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B518" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B519" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B520" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B521" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B522" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D522" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="D497" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B498" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="C498" s="2" t="s">
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B523" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C523" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D498" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B499" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="C499" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D499" s="2" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B500" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="C500" s="2" t="s">
+      <c r="D523" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B524" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C524" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D500" s="2" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B501" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C501" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D501" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B502" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D502" s="2" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B503" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="C503" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D503" s="2" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B504" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="C504" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D504" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B505" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C505" s="2" t="s">
+      <c r="D524" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B525" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C525" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D505" s="2" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B506" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C506" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D506" s="2" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B507" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>973</v>
+      <c r="D525" s="2" t="s">
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -10629,13 +10925,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820C8A7B-6688-4560-AA23-E62449635CA1}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10649,142 +10945,156 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -10793,8 +11103,8 @@
     <hyperlink ref="D6" r:id="rId2" xr:uid="{409E5266-ED2F-4125-97BB-71AE1D81AD70}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{FA53BD35-EAA1-4F90-B236-4D1B14FAFEEB}"/>
     <hyperlink ref="D8" r:id="rId4" xr:uid="{3B565D60-C77A-4E0D-80C5-F4B28E309C41}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{AFA9FF31-4DAD-4608-A988-5BC38B9D44FD}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{47B81F4A-5EAD-46BD-A7CA-C16010854FD9}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{AFA9FF31-4DAD-4608-A988-5BC38B9D44FD}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{47B81F4A-5EAD-46BD-A7CA-C16010854FD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
